--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922D4A2-6859-43BD-9792-2E25C36DA1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A4FB3-EF01-423B-98AE-F76C5499717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>atk</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Fire Spits</t>
+  </si>
+  <si>
+    <t>Enemies Straight Infront Damage + 1</t>
   </si>
 </sst>
 </file>
@@ -273,18 +276,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,110 +635,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA6431-2551-4ED7-9C4C-E5B51270301D}">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>25</v>
       </c>
@@ -745,7 +758,7 @@
       <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="1">
@@ -754,27 +767,27 @@
       <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -784,7 +797,7 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="1">
@@ -793,56 +806,56 @@
       <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="1">
@@ -851,18 +864,18 @@
       <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="1">
@@ -871,18 +884,18 @@
       <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="1">
@@ -891,18 +904,18 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="1">
@@ -911,18 +924,18 @@
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="1">
@@ -931,18 +944,18 @@
       <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="1">
@@ -951,18 +964,18 @@
       <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="1">
@@ -971,22 +984,23 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A4FB3-EF01-423B-98AE-F76C5499717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F8630-EEAB-4AFB-9690-E2F2B081AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20448" yWindow="3540" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>atk</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Protect</t>
   </si>
   <si>
-    <t>Any Ally</t>
-  </si>
-  <si>
     <t>Heal</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Apply Guard</t>
   </si>
   <si>
-    <t>Action Points</t>
-  </si>
-  <si>
     <t>Swap</t>
   </si>
   <si>
@@ -152,24 +146,12 @@
     <t>Grass</t>
   </si>
   <si>
-    <t>Affinity</t>
-  </si>
-  <si>
     <t>Healing Wave</t>
   </si>
   <si>
     <t>Null</t>
   </si>
   <si>
-    <t>Any Adjacent Foe</t>
-  </si>
-  <si>
-    <t>All Foe</t>
-  </si>
-  <si>
-    <t>All Ally</t>
-  </si>
-  <si>
     <t>Total Action Point Per Turn: 8</t>
   </si>
   <si>
@@ -206,22 +188,37 @@
     <t>Bamboo Bash</t>
   </si>
   <si>
-    <t>Icicle Slash</t>
-  </si>
-  <si>
-    <t>Stench Bomb</t>
-  </si>
-  <si>
-    <t>One For All</t>
-  </si>
-  <si>
-    <t>Splash Bounce</t>
-  </si>
-  <si>
-    <t>Fire Spits</t>
-  </si>
-  <si>
     <t>Enemies Straight Infront Damage + 1</t>
+  </si>
+  <si>
+    <t>Ice Punch</t>
+  </si>
+  <si>
+    <t>Fire Blitz</t>
+  </si>
+  <si>
+    <t>Sticky Sticks</t>
+  </si>
+  <si>
+    <t>Swift Surf</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>FOE_ADJACENT</t>
+  </si>
+  <si>
+    <t>FOE_ALL</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>ALLY_ALL</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -635,10 +632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA6431-2551-4ED7-9C4C-E5B51270301D}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,37 +654,10 @@
     <col min="16" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
@@ -697,18 +667,10 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -719,32 +681,14 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -758,249 +702,51 @@
       <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
+  <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,14 +756,289 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD907536-A039-4897-83BA-5286537922DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F18">
+    <sortCondition ref="D9:D18"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F8630-EEAB-4AFB-9690-E2F2B081AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2C960-0AEA-4E41-9951-EA335B5BE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20448" yWindow="3540" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +635,7 @@
   <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,11 +662,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD907536-A039-4897-83BA-5286537922DB}">
   <dimension ref="A4:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -766,48 +766,49 @@
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2C960-0AEA-4E41-9951-EA335B5BE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678DEF2-9C14-478B-A828-B75D8DCD0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>FOE_ADJACENT</t>
-  </si>
-  <si>
     <t>FOE_ALL</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>FOE</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>55</v>
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -967,7 +967,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678DEF2-9C14-478B-A828-B75D8DCD0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B58C38-D099-4189-9E0A-DEBBB96982BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,12 +248,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,11 +669,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -759,7 +766,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,44 +778,44 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -831,7 +838,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="1">
@@ -851,7 +858,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1">
@@ -871,7 +878,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1">
@@ -991,7 +998,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B58C38-D099-4189-9E0A-DEBBB96982BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD98A5-F220-4F33-A562-4B388D1A1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD98A5-F220-4F33-A562-4B388D1A1C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835423F-A1C8-4F61-92DB-189BAC275E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>Enemies Straight Infront Damage + 1</t>
   </si>
   <si>
-    <t>Ice Punch</t>
-  </si>
-  <si>
     <t>Fire Blitz</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>FOE</t>
+  </si>
+  <si>
+    <t>Ice Blade</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,10 +825,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -854,12 +854,12 @@
         <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -874,12 +874,12 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -994,12 +994,12 @@
         <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1014,12 +1014,12 @@
         <v>27</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835423F-A1C8-4F61-92DB-189BAC275E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968D8B5-91C2-40F8-B625-C7C94D0AF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968D8B5-91C2-40F8-B625-C7C94D0AF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5517526D-58DA-40CA-8FAC-0CB541AA2B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>atk</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Protect</t>
   </si>
   <si>
-    <t>Heal</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Apply Bleed</t>
   </si>
   <si>
-    <t>Apply Guard</t>
-  </si>
-  <si>
     <t>Swap</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Grass</t>
   </si>
   <si>
-    <t>Healing Wave</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>1 Damage per turn</t>
   </si>
   <si>
-    <t>Type Advantage Damage + 1</t>
-  </si>
-  <si>
     <t>Take damage to ally</t>
   </si>
   <si>
@@ -219,6 +207,21 @@
   </si>
   <si>
     <t>Ice Blade</t>
+  </si>
+  <si>
+    <t>Heal and Swap</t>
+  </si>
+  <si>
+    <t>Healing Pulse</t>
+  </si>
+  <si>
+    <t>Type Advantage Damage + 1 / + 2 heal</t>
+  </si>
+  <si>
+    <t>Natural Remedy</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -689,13 +692,13 @@
         <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -710,34 +713,34 @@
         <v>15</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -745,10 +748,10 @@
         <v>22</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -766,12 +769,12 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
@@ -779,7 +782,7 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -789,7 +792,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -799,7 +802,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -825,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -848,18 +851,18 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -868,18 +871,18 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -888,18 +891,18 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -908,38 +911,38 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
+      <c r="A14" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>-5</v>
@@ -948,18 +951,18 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>-2</v>
@@ -968,18 +971,18 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
+      <c r="A16" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -988,18 +991,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1008,18 +1011,18 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1028,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5517526D-58DA-40CA-8FAC-0CB541AA2B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BCADE-BD35-40C8-B9FB-8BA33C87DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,17 +260,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -288,13 +303,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,11 +687,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -769,7 +784,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,44 +796,44 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -841,7 +856,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1">
@@ -861,7 +876,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1">
@@ -881,7 +896,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="1">
@@ -901,7 +916,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1">
@@ -921,7 +936,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="1">
@@ -941,7 +956,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1">
@@ -961,7 +976,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="1">
@@ -981,7 +996,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
@@ -1001,7 +1016,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1">
@@ -1021,7 +1036,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="1">

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BCADE-BD35-40C8-B9FB-8BA33C87DCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554F283-C790-4210-91D9-EB3FE623A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="83">
   <si>
     <t>atk</t>
   </si>
@@ -222,6 +223,69 @@
   </si>
   <si>
     <t>Bonfire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Action: Swift Surf</t>
+  </si>
+  <si>
+    <t>User: FoeGreen</t>
+  </si>
+  <si>
+    <t>Weight:2</t>
+  </si>
+  <si>
+    <t>Targets:</t>
+  </si>
+  <si>
+    <t>FoeGreen</t>
+  </si>
+  <si>
+    <t>Action: Bamboo Bash</t>
+  </si>
+  <si>
+    <t>Action: Fire Blitz</t>
+  </si>
+  <si>
+    <t>Weight:1</t>
+  </si>
+  <si>
+    <t>FoeRed</t>
+  </si>
+  <si>
+    <t>FoeBlue</t>
+  </si>
+  <si>
+    <t>Action: Natural Remedy</t>
+  </si>
+  <si>
+    <t>User: FoeRed</t>
+  </si>
+  <si>
+    <t>Action: Icicle Blade</t>
+  </si>
+  <si>
+    <t>Weight:3</t>
+  </si>
+  <si>
+    <t>Action: Sticky Sticks</t>
+  </si>
+  <si>
+    <t>Action: Healing Pulse</t>
+  </si>
+  <si>
+    <t>User: FoeBlue</t>
+  </si>
+  <si>
+    <t>Action: Fire Ball</t>
+  </si>
+  <si>
+    <t>Action: Bonfire</t>
   </si>
 </sst>
 </file>
@@ -303,13 +367,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,11 +751,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -784,7 +848,7 @@
   <dimension ref="A4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,44 +860,44 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -856,7 +920,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1">
@@ -876,7 +940,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="1">
@@ -896,7 +960,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="1">
@@ -916,7 +980,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1">
@@ -936,7 +1000,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="1">
@@ -956,7 +1020,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1">
@@ -976,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="1">
@@ -996,7 +1060,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
@@ -1016,7 +1080,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1">
@@ -1026,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -1036,7 +1100,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="1">
@@ -1067,4 +1131,582 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA257DF1-37EF-49C0-905E-B864A09E4FBF}">
+  <dimension ref="B2:B113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554F283-C790-4210-91D9-EB3FE623A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94D4225-1BAF-40AF-94BC-3D485D155927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>atk</t>
   </si>
@@ -225,67 +225,19 @@
     <t>Bonfire</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Action: Swift Surf</t>
-  </si>
-  <si>
-    <t>User: FoeGreen</t>
-  </si>
-  <si>
-    <t>Weight:2</t>
-  </si>
-  <si>
-    <t>Targets:</t>
-  </si>
-  <si>
-    <t>FoeGreen</t>
-  </si>
-  <si>
-    <t>Action: Bamboo Bash</t>
-  </si>
-  <si>
-    <t>Action: Fire Blitz</t>
-  </si>
-  <si>
-    <t>Weight:1</t>
-  </si>
-  <si>
-    <t>FoeRed</t>
-  </si>
-  <si>
-    <t>FoeBlue</t>
-  </si>
-  <si>
-    <t>Action: Natural Remedy</t>
-  </si>
-  <si>
-    <t>User: FoeRed</t>
-  </si>
-  <si>
-    <t>Action: Icicle Blade</t>
-  </si>
-  <si>
-    <t>Weight:3</t>
-  </si>
-  <si>
-    <t>Action: Sticky Sticks</t>
-  </si>
-  <si>
-    <t>Action: Healing Pulse</t>
-  </si>
-  <si>
-    <t>User: FoeBlue</t>
-  </si>
-  <si>
-    <t>Action: Fire Ball</t>
-  </si>
-  <si>
-    <t>Action: Bonfire</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -356,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +320,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,11 +706,11 @@
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -845,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD907536-A039-4897-83BA-5286537922DB}">
-  <dimension ref="A4:F18"/>
+  <dimension ref="A4:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,49 +812,50 @@
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -918,8 +874,29 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -938,8 +915,30 @@
       <c r="F9" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>SUM(G9:L9)+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -958,8 +957,30 @@
       <c r="F10" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M18" si="0">SUM(G10:L10)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -978,8 +999,30 @@
       <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -998,8 +1041,30 @@
       <c r="F12" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -1018,8 +1083,30 @@
       <c r="F13" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -1038,8 +1125,30 @@
       <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
@@ -1058,8 +1167,30 @@
       <c r="F15" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -1078,8 +1209,30 @@
       <c r="F16" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -1090,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -1098,8 +1251,30 @@
       <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1117,6 +1292,28 @@
       </c>
       <c r="F18" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA257DF1-37EF-49C0-905E-B864A09E4FBF}">
-  <dimension ref="B2:B113"/>
+  <dimension ref="B54:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,564 +1343,50 @@
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>73</v>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <f>SUM(C54:C58)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Monster RPG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94D4225-1BAF-40AF-94BC-3D485D155927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,58 +12,53 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
+    <t>actoin points team</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>atk</t>
   </si>
   <si>
-    <t>health</t>
+    <t>maybe defence</t>
+  </si>
+  <si>
+    <t>attakcs</t>
   </si>
   <si>
     <t>weakness</t>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
     <t>strenght</t>
   </si>
   <si>
-    <t>attakcs</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
     <t>action pionts</t>
   </si>
   <si>
-    <t>actoin points team</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
-    <t>maybe defence</t>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Base Stats</t>
+  </si>
+  <si>
+    <t>Weakness</t>
   </si>
   <si>
     <t>Mon1</t>
@@ -81,10 +70,61 @@
     <t>Mon3</t>
   </si>
   <si>
-    <t>Base Stats</t>
-  </si>
-  <si>
-    <t>Life</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Remains</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>1 Damage per turn</t>
+  </si>
+  <si>
+    <t>4 turns</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Paralyze</t>
+  </si>
+  <si>
+    <t>Can't move</t>
+  </si>
+  <si>
+    <t>2 turns</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Take damage to ally</t>
+  </si>
+  <si>
+    <t>2 attacks to ally</t>
+  </si>
+  <si>
+    <t>Enemies Straight Infront Damage + 1</t>
+  </si>
+  <si>
+    <t>Type Advantage Damage + 1 / + 2 heal</t>
+  </si>
+  <si>
+    <t>Total Action Point Per Turn: 8</t>
+  </si>
+  <si>
+    <t>Skills</t>
   </si>
   <si>
     <t>Name</t>
@@ -93,163 +133,109 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Paralyze</t>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Range</t>
   </si>
   <si>
-    <t>Protect</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Lowest</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Fire Ball</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>FOE</t>
+  </si>
+  <si>
+    <t>Fire Blitz</t>
+  </si>
+  <si>
+    <t>FOE_ALL</t>
+  </si>
+  <si>
+    <t>Sticky Sticks</t>
+  </si>
+  <si>
     <t>Apply Paralyze</t>
   </si>
   <si>
-    <t>Bleed</t>
+    <t>Bamboo Bash</t>
+  </si>
+  <si>
+    <t>Swap with Chosen Foe</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
+  </si>
+  <si>
+    <t>Heal and Swap</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>Natural Remedy</t>
+  </si>
+  <si>
+    <t>Healing Pulse</t>
+  </si>
+  <si>
+    <t>ALLY_ALL</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Swap with Chosen Ally</t>
+  </si>
+  <si>
+    <t>Ice Blade</t>
   </si>
   <si>
     <t>Apply Bleed</t>
   </si>
   <si>
-    <t>Swap</t>
-  </si>
-  <si>
-    <t>Swap with Chosen Ally</t>
-  </si>
-  <si>
-    <t>Swap with Chosen Foe</t>
-  </si>
-  <si>
-    <t>Weakness</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>Total Action Point Per Turn: 8</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remains</t>
-  </si>
-  <si>
-    <t>4 turns</t>
-  </si>
-  <si>
-    <t>2 turns</t>
-  </si>
-  <si>
-    <t>2 attacks to ally</t>
-  </si>
-  <si>
-    <t>Can't move</t>
-  </si>
-  <si>
-    <t>1 Damage per turn</t>
-  </si>
-  <si>
-    <t>Take damage to ally</t>
-  </si>
-  <si>
-    <t>Fire Ball</t>
-  </si>
-  <si>
-    <t>Bamboo Bash</t>
-  </si>
-  <si>
-    <t>Enemies Straight Infront Damage + 1</t>
-  </si>
-  <si>
-    <t>Fire Blitz</t>
-  </si>
-  <si>
-    <t>Sticky Sticks</t>
-  </si>
-  <si>
     <t>Swift Surf</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>FOE_ALL</t>
-  </si>
-  <si>
-    <t>ALLY</t>
-  </si>
-  <si>
-    <t>ALLY_ALL</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>FOE</t>
-  </si>
-  <si>
-    <t>Ice Blade</t>
-  </si>
-  <si>
-    <t>Heal and Swap</t>
-  </si>
-  <si>
-    <t>Healing Pulse</t>
-  </si>
-  <si>
-    <t>Type Advantage Damage + 1 / + 2 heal</t>
-  </si>
-  <si>
-    <t>Natural Remedy</t>
-  </si>
-  <si>
-    <t>Bonfire</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Lowest</t>
-  </si>
-  <si>
-    <t>Healing</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>Max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,17 +243,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +407,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -291,24 +614,266 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,31 +881,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -424,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,145 +1199,142 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="E4:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="13:13">
       <c r="M4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11">
       <c r="F5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11">
       <c r="E6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11">
       <c r="E7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA6431-2551-4ED7-9C4C-E5B51270301D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="17.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.66666666666667" style="4" customWidth="1"/>
+    <col min="2" max="5" width="8.88888888888889" style="4"/>
+    <col min="6" max="6" width="12.8888888888889" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.88888888888889" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.2222222222222" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.33333333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.7777777777778" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.4444444444444" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.88888888888889" style="4"/>
+    <col min="14" max="14" width="17.5555555555556" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:5">
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="3" s="1" customFormat="1"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>25</v>
       </c>
@@ -746,159 +1344,160 @@
       <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="M7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="13:15">
+      <c r="M8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD907536-A039-4897-83BA-5286537922DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A4:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="15.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -907,13 +1506,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -938,9 +1537,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -949,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -980,9 +1579,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>48</v>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -991,13 +1590,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1022,9 +1621,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1033,13 +1632,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1064,9 +1663,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>61</v>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>-2</v>
@@ -1075,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1106,9 +1705,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>60</v>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>-5</v>
@@ -1117,13 +1716,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1148,9 +1747,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="1">
         <v>-2</v>
@@ -1159,13 +1758,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1190,9 +1789,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1201,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1232,9 +1831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1243,13 +1842,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1274,9 +1873,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1285,13 +1884,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1317,33 +1916,35 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F18">
+  <sortState ref="A9:F18">
     <sortCondition ref="D9:D18"/>
   </sortState>
   <mergeCells count="4">
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA257DF1-37EF-49C0-905E-B864A09E4FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B54:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>1</v>
       </c>
@@ -1351,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -1359,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>3</v>
       </c>
@@ -1367,7 +1968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>4</v>
       </c>
@@ -1375,7 +1976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>5</v>
       </c>
@@ -1383,7 +1984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3">
       <c r="C59">
         <f>SUM(C54:C58)</f>
         <v>100</v>
@@ -1391,5 +1992,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -225,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,20 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -270,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +270,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -292,6 +285,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -308,6 +308,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -323,14 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -339,20 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -362,6 +348,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -382,21 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -425,181 +418,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,6 +670,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -691,17 +699,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,162 +718,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,7 +1395,7 @@
   <dimension ref="A4:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1664,7 +1657,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1">
@@ -1706,7 +1699,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="1">
@@ -1748,7 +1741,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="1">
